--- a/src/test/resources/testdata/Test_File.xlsx
+++ b/src/test/resources/testdata/Test_File.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satyi\Testing_practice_2025\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0BCBB2-47F1-4B01-BFBE-E6B4071EFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23BE079-7206-4CEB-8D77-04B58E27D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26409EA9-3053-4272-B5FD-3BC1736DBE1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26409EA9-3053-4272-B5FD-3BC1736DBE1B}"/>
   </bookViews>
   <sheets>
     <sheet name="holdings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Instrument</t>
   </si>
@@ -137,6 +148,12 @@
   </si>
   <si>
     <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>fomula</t>
   </si>
 </sst>
 </file>
@@ -977,13 +994,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A71EECE-9E0D-4D87-AF58-300D31D4E93C}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,8 +1027,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1034,8 +1059,16 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>E2+F2</f>
+        <v>48885.25</v>
+      </c>
+      <c r="J2" t="b">
+        <f>E2=F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1085,7 @@
         <v>49160</v>
       </c>
       <c r="F3">
-        <v>8441.4500000000007</v>
+        <v>49160</v>
       </c>
       <c r="G3">
         <v>20.73</v>
@@ -1060,8 +1093,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I32" si="0">E3+F3</f>
+        <v>98320</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J32" si="1">E3=F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1119,7 @@
         <v>68670</v>
       </c>
       <c r="F4">
-        <v>13096.7</v>
+        <v>68670</v>
       </c>
       <c r="G4">
         <v>23.57</v>
@@ -1086,8 +1127,16 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>137340</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1161,16 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>96440</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1138,8 +1195,16 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>121723.5</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1221,7 @@
         <v>93940</v>
       </c>
       <c r="F7">
-        <v>26787.1</v>
+        <v>93940</v>
       </c>
       <c r="G7">
         <v>39.89</v>
@@ -1164,8 +1229,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>187880</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1255,7 @@
         <v>95760</v>
       </c>
       <c r="F8">
-        <v>17295.849999999999</v>
+        <v>95760</v>
       </c>
       <c r="G8">
         <v>22.04</v>
@@ -1190,8 +1263,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>191520</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1216,8 +1297,16 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>127418.25</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1242,8 +1331,16 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>106534.5</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1268,8 +1365,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>124200</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1391,7 @@
         <v>102480</v>
       </c>
       <c r="F12">
-        <v>55274.5</v>
+        <v>102480</v>
       </c>
       <c r="G12">
         <v>117.09</v>
@@ -1294,8 +1399,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>204960</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1320,8 +1433,16 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>147975</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1346,8 +1467,16 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>137146.65</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1372,8 +1501,16 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>139060.44999999998</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1398,8 +1535,16 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>235957.35</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1561,7 @@
         <v>152275</v>
       </c>
       <c r="F17">
-        <v>36955.75</v>
+        <v>152275</v>
       </c>
       <c r="G17">
         <v>32.049999999999997</v>
@@ -1424,8 +1569,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>304550</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1450,8 +1603,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>211725.5</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1476,8 +1637,16 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>136775.5</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1502,8 +1671,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>159020.20000000001</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1697,7 @@
         <v>164390</v>
       </c>
       <c r="F21">
-        <v>45911.040000000001</v>
+        <v>164390</v>
       </c>
       <c r="G21">
         <v>38.75</v>
@@ -1528,8 +1705,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>328780</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1554,8 +1739,16 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>205326</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1580,8 +1773,16 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>218462.05</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1799,7 @@
         <v>175365</v>
       </c>
       <c r="F24">
-        <v>83751</v>
+        <v>175365</v>
       </c>
       <c r="G24">
         <v>91.42</v>
@@ -1606,8 +1807,16 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>350730</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1632,8 +1841,16 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>276800</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1658,8 +1875,16 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>258187.5</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1684,8 +1909,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>229841.6</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1935,7 @@
         <v>213720</v>
       </c>
       <c r="F28">
-        <v>-4954.3</v>
+        <v>213720</v>
       </c>
       <c r="G28">
         <v>-2.27</v>
@@ -1710,8 +1943,16 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>427440</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1736,8 +1977,16 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>413781.35</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +2003,7 @@
         <v>273365</v>
       </c>
       <c r="F30">
-        <v>62457.25</v>
+        <v>273365</v>
       </c>
       <c r="G30">
         <v>29.61</v>
@@ -1762,8 +2011,16 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>546730</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1788,8 +2045,16 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>376635.4</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1806,13 +2071,21 @@
         <v>336260</v>
       </c>
       <c r="F32">
-        <v>122641.25</v>
+        <v>336260</v>
       </c>
       <c r="G32">
         <v>57.41</v>
       </c>
       <c r="H32">
         <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>672520</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
